--- a/biology/Médecine/GxP/GxP.xlsx
+++ b/biology/Médecine/GxP/GxP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">GxP est un sigle générique pour désigner les directives et réglementations proposant des « bonnes pratiques » de qualité. Le « x » correspond au domaine considéré : secteur pharmaceutique, ou encore le secteur agroalimentaire qui définit de bonnes pratiques agricoles (GAP pour « good agricultural practices », en anglais).
-La lettre « c » minuscule ou majuscule est parfois ajoutée en préfixe du sigle, pour désigner les pratiques actuelles. Par exemple, cGMP désigne les « bonnes pratiques actuelles de fabrication » (« M » pour le mot anglais « manufacturing »). Le terme GxP est fréquemment utilisé pour désigner de manière générique un ensemble de directives qualité [1].
+La lettre « c » minuscule ou majuscule est parfois ajoutée en préfixe du sigle, pour désigner les pratiques actuelles. Par exemple, cGMP désigne les « bonnes pratiques actuelles de fabrication » (« M » pour le mot anglais « manufacturing »). Le terme GxP est fréquemment utilisé pour désigner de manière générique un ensemble de directives qualité .
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif des directives de qualité GxP est de garantir qu'un produit est sûr et qu'il répond à l'usage pour lequel il est destiné. Elles constituent un guide pour assurer une fabrication de qualité dans un certain nombre d'industries soumises à réglementations, notamment agroalimentaires, pharmaceutiques, médicales et cosmétiques.
 Les aspects les plus centraux des GxP sont les bonnes pratiques de documentation (GDP), qui devraient être ALEFO :
@@ -555,15 +569,17 @@
           <t>Exemples de GxP</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bonnes pratiques agricoles et de collecte, ou GACP(s)
 Bonnes pratiques agricoles, ou GAP
 Bonnes pratiques d'audit, ou GAP
-Bonnes pratiques de laboratoire automatisées, ou GALP[2],[3]
+Bonnes pratiques de laboratoire automatisées, ou GALP,
 Bonnes pratiques de fabrication automatisée, ou GAMP
 Bonnes pratiques commerciales, ou GBP
-Bonnes pratiques de culture cellulaire, ou GCCP[4]
+Bonnes pratiques de culture cellulaire, ou GCCP
 Bonnes pratiques de gestion des données cliniques, ou GCDMP
 Bonnes pratiques de laboratoire clinique, ou GCLP
 Bonnes pratiques cliniques, ou GCP
@@ -571,7 +587,7 @@
 Bonnes pratiques de distribution, ou GDP
 Bonnes pratiques d'ingénierie, ou GEP
 Bonnes pratiques financières, ou GFP
-Bonnes pratiques d'orientation, ou GGP[5],[6]
+Bonnes pratiques d'orientation, ou GGP,
 Bonnes pratiques horticoles, ou GHP
 Bonnes pratiques d'hygiène, ou GHP
 Bonnes pratiques de laboratoire, ou GLP
